--- a/polyglot-npm/polyglot-node/translations.xlsx
+++ b/polyglot-npm/polyglot-node/translations.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59853C24-B19B-4D7A-96FA-62320F0D422B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F43C84-FB9C-43D7-9423-96F2E10FD97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="885" windowWidth="29040" windowHeight="15720" tabRatio="780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27075" yWindow="1545" windowWidth="23430" windowHeight="14880" tabRatio="780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="7" r:id="rId1"/>
@@ -15,16 +15,12 @@
     <sheet name="ko-KR" sheetId="13" r:id="rId5"/>
     <sheet name="ja-JP" sheetId="12" r:id="rId6"/>
     <sheet name="zh-CN" sheetId="14" r:id="rId7"/>
-    <sheet name="zh-TW" sheetId="15" r:id="rId8"/>
-    <sheet name="de-DE" sheetId="16" r:id="rId9"/>
-    <sheet name="pt-PT" sheetId="17" r:id="rId10"/>
-    <sheet name="fr-FR" sheetId="19" r:id="rId11"/>
-    <sheet name="es-ES" sheetId="20" r:id="rId12"/>
-    <sheet name="pl-PL" sheetId="21" r:id="rId13"/>
-    <sheet name="ru-RU" sheetId="22" r:id="rId14"/>
-    <sheet name="uk-UA" sheetId="23" r:id="rId15"/>
-    <sheet name="tr-TR" sheetId="24" r:id="rId16"/>
-    <sheet name="it-IT" sheetId="25" r:id="rId17"/>
+    <sheet name="de-DE" sheetId="16" r:id="rId8"/>
+    <sheet name="fr-FR" sheetId="19" r:id="rId9"/>
+    <sheet name="es-ES" sheetId="20" r:id="rId10"/>
+    <sheet name="pl-PL" sheetId="21" r:id="rId11"/>
+    <sheet name="ru-RU" sheetId="22" r:id="rId12"/>
+    <sheet name="it-IT" sheetId="25" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="97">
   <si>
     <t>value</t>
   </si>
@@ -331,12 +327,35 @@
   <si>
     <t>The resolution for the Polyglot icon. Possible values are 32, 48, 64, 96  and 128 px.</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steam recommended</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> translations highlighted in yellow</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,6 +373,14 @@
     <font>
       <sz val="11"/>
       <color theme="2" tint="-0.89999084444715716"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -391,7 +418,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -414,11 +441,137 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFF00"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFF00"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFF00"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFF00"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFF00"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFF00"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFF00"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFF00"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFFFF00"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFF00"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFF00"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFF00"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -469,6 +622,36 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -801,7 +984,7 @@
     <col min="5" max="5" width="6.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="7.88671875" style="3" customWidth="1"/>
     <col min="7" max="7" width="33.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="37.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="48.77734375" style="3" customWidth="1"/>
     <col min="9" max="9" width="7.6640625" style="4" customWidth="1"/>
     <col min="10" max="10" width="7.88671875" style="3" customWidth="1"/>
     <col min="11" max="11" width="31.6640625" style="3" customWidth="1"/>
@@ -842,16 +1025,18 @@
       <c r="C2" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="9">
-        <v>0</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="20">
+        <v>0</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2" s="23" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -863,16 +1048,16 @@
       <c r="C3" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="20">
         <v>1</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
@@ -884,13 +1069,13 @@
       <c r="C4" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="20">
         <v>2</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="21" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="9"/>
@@ -905,13 +1090,13 @@
       <c r="C5" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="20">
         <v>3</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="21" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="9"/>
@@ -926,13 +1111,13 @@
       <c r="C6" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="20">
         <v>4</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="21" t="s">
         <v>19</v>
       </c>
       <c r="H6" s="9"/>
@@ -947,13 +1132,13 @@
       <c r="C7" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="20">
         <v>5</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="21" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="9"/>
@@ -966,25 +1151,25 @@
       <c r="C8" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="20">
         <v>6</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="21" t="s">
         <v>25</v>
       </c>
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="9">
+      <c r="E9" s="20">
         <v>7</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="21" t="s">
         <v>27</v>
       </c>
       <c r="H9" s="9"/>
@@ -993,7 +1178,7 @@
       <c r="E10" s="9">
         <v>8</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="24" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="9" t="s">
@@ -1005,13 +1190,13 @@
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
-      <c r="E11" s="9">
+      <c r="E11" s="20">
         <v>9</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="21" t="s">
         <v>31</v>
       </c>
       <c r="H11" s="9"/>
@@ -1020,13 +1205,13 @@
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
-      <c r="E12" s="9">
+      <c r="E12" s="20">
         <v>10</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="21" t="s">
         <v>33</v>
       </c>
       <c r="H12" s="9"/>
@@ -1035,13 +1220,13 @@
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
-      <c r="E13" s="9">
+      <c r="E13" s="20">
         <v>11</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="21" t="s">
         <v>35</v>
       </c>
       <c r="H13" s="9"/>
@@ -1053,7 +1238,7 @@
       <c r="E14" s="9">
         <v>12</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="22" t="s">
         <v>36</v>
       </c>
       <c r="G14" s="9" t="s">
@@ -1113,7 +1298,7 @@
       <c r="E18" s="9">
         <v>16</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="28" t="s">
         <v>44</v>
       </c>
       <c r="G18" s="9" t="s">
@@ -1125,13 +1310,13 @@
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
-      <c r="E19" s="9">
+      <c r="E19" s="20">
         <v>17</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="21" t="s">
         <v>47</v>
       </c>
       <c r="H19" s="9"/>
@@ -1140,13 +1325,13 @@
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
-      <c r="E20" s="9">
+      <c r="E20" s="20">
         <v>18</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="21" t="s">
         <v>49</v>
       </c>
       <c r="H20" s="9"/>
@@ -1158,7 +1343,7 @@
       <c r="E21" s="9">
         <v>19</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="22" t="s">
         <v>50</v>
       </c>
       <c r="G21" s="9" t="s">
@@ -1323,7 +1508,7 @@
       <c r="E34" s="9">
         <v>32</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="28" t="s">
         <v>76</v>
       </c>
       <c r="G34" s="9" t="s">
@@ -1332,13 +1517,13 @@
       <c r="H34" s="9"/>
     </row>
     <row r="35" spans="5:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E35" s="9">
+      <c r="E35" s="20">
         <v>33</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="21" t="s">
         <v>79</v>
       </c>
       <c r="H35" s="9" t="s">
@@ -1350,7 +1535,6 @@
       <c r="K36" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"TRUE, FALSE"</formula1>
@@ -1369,2175 +1553,11 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="203" verticalDpi="203"/>
+  <pageSetup paperSize="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:C131"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="38.5546875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="5.88671875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="str">
-        <f t="array" ref="A2">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v>example</v>
-      </c>
-      <c r="C2" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="str">
-        <f t="array" ref="A3">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C3" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="str">
-        <f t="array" ref="A4">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C4" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="str">
-        <f t="array" ref="A5">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C5" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="str">
-        <f t="array" ref="A6">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C6" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="str">
-        <f t="array" ref="A7">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C7" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="str">
-        <f t="array" ref="A8">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C8" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="str">
-        <f t="array" ref="A9">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C9" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="str">
-        <f t="array" ref="A10">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C10" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="str">
-        <f t="array" ref="A11">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C11" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="str">
-        <f t="array" ref="A12">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C12" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="str">
-        <f t="array" ref="A13">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C13" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="str">
-        <f t="array" ref="A14">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C14" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="str">
-        <f t="array" ref="A15">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C15" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="str">
-        <f t="array" ref="A16">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C16" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="str">
-        <f t="array" ref="A17">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C17" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="str">
-        <f t="array" ref="A18">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C18" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="str">
-        <f t="array" ref="A19">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C19" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="str">
-        <f t="array" ref="A20">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C20" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="str">
-        <f t="array" ref="A21">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C21" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="str">
-        <f t="array" ref="A22">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C22" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="str">
-        <f t="array" ref="A23">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C23" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="str">
-        <f t="array" ref="A24">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C24" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="str">
-        <f t="array" ref="A25">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C25" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="str">
-        <f t="array" ref="A26">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C26" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="str">
-        <f t="array" ref="A27">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C27" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="str">
-        <f t="array" ref="A28">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C28" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="str">
-        <f t="array" ref="A29">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C29" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="str">
-        <f t="array" ref="A30">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C30" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="str">
-        <f t="array" ref="A31">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C31" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="str">
-        <f t="array" ref="A32">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C32" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="str">
-        <f t="array" ref="A33">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C33" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="str">
-        <f t="array" ref="A34">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C34" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="str">
-        <f t="array" ref="A35">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C35" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="str">
-        <f t="array" ref="A36">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C36" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="str">
-        <f t="array" ref="A37">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C37" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="str">
-        <f t="array" ref="A38">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C38" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="13" t="str">
-        <f t="array" ref="A39">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C39" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13" t="str">
-        <f t="array" ref="A40">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C40" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13" t="str">
-        <f t="array" ref="A41">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C41" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="str">
-        <f t="array" ref="A42">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C42" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="13" t="str">
-        <f t="array" ref="A43">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C43" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="13" t="str">
-        <f t="array" ref="A44">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C44" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="13" t="str">
-        <f t="array" ref="A45">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C45" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="13" t="str">
-        <f t="array" ref="A46">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C46" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="13" t="str">
-        <f t="array" ref="A47">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C47" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="13" t="str">
-        <f t="array" ref="A48">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C48" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="13" t="str">
-        <f t="array" ref="A49">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C49" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="13" t="str">
-        <f t="array" ref="A50">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C50" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="13" t="str">
-        <f t="array" ref="A51">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C51" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="13" t="str">
-        <f t="array" ref="A52">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C52" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="13" t="str">
-        <f t="array" ref="A53">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C53" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="13" t="str">
-        <f t="array" ref="A54">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C54" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="13" t="str">
-        <f t="array" ref="A55">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C55" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="13" t="str">
-        <f t="array" ref="A56">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C56" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="13" t="str">
-        <f t="array" ref="A57">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C57" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="13" t="str">
-        <f t="array" ref="A58">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C58" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="13" t="str">
-        <f t="array" ref="A59">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C59" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="str">
-        <f t="array" ref="A60">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C60" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="13" t="str">
-        <f t="array" ref="A61">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C61" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="13" t="str">
-        <f t="array" ref="A62">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C62" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="13" t="str">
-        <f t="array" ref="A63">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C63" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="13" t="str">
-        <f t="array" ref="A64">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C64" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="13" t="str">
-        <f t="array" ref="A65">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C65" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="13" t="str">
-        <f t="array" ref="A66">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C66" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="13" t="str">
-        <f t="array" ref="A67">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C67" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="13" t="str">
-        <f t="array" ref="A68">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C68" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="13" t="str">
-        <f t="array" ref="A69">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C69" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="13" t="str">
-        <f t="array" ref="A70">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C70" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="13" t="str">
-        <f t="array" ref="A71">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C71" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="13" t="str">
-        <f t="array" ref="A72">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C72" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="13" t="str">
-        <f t="array" ref="A73">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C73" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="13" t="str">
-        <f t="array" ref="A74">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C74" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="13" t="str">
-        <f t="array" ref="A75">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C75" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="13" t="str">
-        <f t="array" ref="A76">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C76" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="13" t="str">
-        <f t="array" ref="A77">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C77" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="13" t="str">
-        <f t="array" ref="A78">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C78" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="13" t="str">
-        <f t="array" ref="A79">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C79" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="13" t="str">
-        <f t="array" ref="A80">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C80" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="13" t="str">
-        <f t="array" ref="A81">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C81" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="13" t="str">
-        <f t="array" ref="A82">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C82" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="13" t="str">
-        <f t="array" ref="A83">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C83" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="13" t="str">
-        <f t="array" ref="A84">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C84" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="13" t="str">
-        <f t="array" ref="A85">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C85" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="13" t="str">
-        <f t="array" ref="A86">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C86" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="13" t="str">
-        <f t="array" ref="A87">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C87" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="13" t="str">
-        <f t="array" ref="A88">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C88" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="13" t="str">
-        <f t="array" ref="A89">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C89" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="13" t="str">
-        <f t="array" ref="A90">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C90" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="13" t="str">
-        <f t="array" ref="A91">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C91" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="13" t="str">
-        <f t="array" ref="A92">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C92" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="13" t="str">
-        <f t="array" ref="A93">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C93" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="13" t="str">
-        <f t="array" ref="A94">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C94" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="13" t="str">
-        <f t="array" ref="A95">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C95" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="13" t="str">
-        <f t="array" ref="A96">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C96" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="13" t="str">
-        <f t="array" ref="A97">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C97" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="13" t="str">
-        <f t="array" ref="A98">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C98" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="13" t="str">
-        <f t="array" ref="A99">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C99" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="13" t="str">
-        <f t="array" ref="A100">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C100" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C101" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C102" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C103" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C104" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C105" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C106" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C107" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C108" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C109" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C110" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C111" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C112" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C113" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C114" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C115" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C116" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C117" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C118" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C119" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C120" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C121" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C122" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C123" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C124" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C125" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C126" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C127" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C128" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C129" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C130" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C131" s="16">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="203" verticalDpi="203"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:C131"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="38.5546875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="5.88671875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="str">
-        <f t="array" ref="A2">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v>example</v>
-      </c>
-      <c r="C2" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="str">
-        <f t="array" ref="A3">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C3" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="str">
-        <f t="array" ref="A4">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C4" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="str">
-        <f t="array" ref="A5">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C5" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="str">
-        <f t="array" ref="A6">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C6" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="str">
-        <f t="array" ref="A7">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C7" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="str">
-        <f t="array" ref="A8">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C8" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="str">
-        <f t="array" ref="A9">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C9" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="str">
-        <f t="array" ref="A10">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C10" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="str">
-        <f t="array" ref="A11">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C11" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="str">
-        <f t="array" ref="A12">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C12" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="str">
-        <f t="array" ref="A13">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C13" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="str">
-        <f t="array" ref="A14">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C14" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="str">
-        <f t="array" ref="A15">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C15" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="str">
-        <f t="array" ref="A16">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C16" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="str">
-        <f t="array" ref="A17">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C17" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="str">
-        <f t="array" ref="A18">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C18" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="str">
-        <f t="array" ref="A19">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C19" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="str">
-        <f t="array" ref="A20">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C20" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="str">
-        <f t="array" ref="A21">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C21" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="str">
-        <f t="array" ref="A22">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C22" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="str">
-        <f t="array" ref="A23">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C23" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="str">
-        <f t="array" ref="A24">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C24" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="str">
-        <f t="array" ref="A25">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C25" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="str">
-        <f t="array" ref="A26">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C26" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="str">
-        <f t="array" ref="A27">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C27" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="str">
-        <f t="array" ref="A28">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C28" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="str">
-        <f t="array" ref="A29">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C29" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="str">
-        <f t="array" ref="A30">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C30" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="str">
-        <f t="array" ref="A31">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C31" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="str">
-        <f t="array" ref="A32">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C32" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="str">
-        <f t="array" ref="A33">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C33" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="str">
-        <f t="array" ref="A34">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C34" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="str">
-        <f t="array" ref="A35">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C35" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="str">
-        <f t="array" ref="A36">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C36" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="str">
-        <f t="array" ref="A37">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C37" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="str">
-        <f t="array" ref="A38">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C38" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="13" t="str">
-        <f t="array" ref="A39">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C39" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13" t="str">
-        <f t="array" ref="A40">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C40" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13" t="str">
-        <f t="array" ref="A41">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C41" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="str">
-        <f t="array" ref="A42">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C42" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="13" t="str">
-        <f t="array" ref="A43">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C43" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="13" t="str">
-        <f t="array" ref="A44">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C44" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="13" t="str">
-        <f t="array" ref="A45">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C45" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="13" t="str">
-        <f t="array" ref="A46">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C46" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="13" t="str">
-        <f t="array" ref="A47">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C47" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="13" t="str">
-        <f t="array" ref="A48">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C48" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="13" t="str">
-        <f t="array" ref="A49">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C49" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="13" t="str">
-        <f t="array" ref="A50">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C50" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="13" t="str">
-        <f t="array" ref="A51">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C51" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="13" t="str">
-        <f t="array" ref="A52">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C52" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="13" t="str">
-        <f t="array" ref="A53">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C53" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="13" t="str">
-        <f t="array" ref="A54">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C54" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="13" t="str">
-        <f t="array" ref="A55">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C55" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="13" t="str">
-        <f t="array" ref="A56">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C56" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="13" t="str">
-        <f t="array" ref="A57">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C57" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="13" t="str">
-        <f t="array" ref="A58">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C58" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="13" t="str">
-        <f t="array" ref="A59">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C59" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="str">
-        <f t="array" ref="A60">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C60" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="13" t="str">
-        <f t="array" ref="A61">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C61" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="13" t="str">
-        <f t="array" ref="A62">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C62" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="13" t="str">
-        <f t="array" ref="A63">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C63" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="13" t="str">
-        <f t="array" ref="A64">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C64" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="13" t="str">
-        <f t="array" ref="A65">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C65" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="13" t="str">
-        <f t="array" ref="A66">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C66" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="13" t="str">
-        <f t="array" ref="A67">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C67" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="13" t="str">
-        <f t="array" ref="A68">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C68" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="13" t="str">
-        <f t="array" ref="A69">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C69" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="13" t="str">
-        <f t="array" ref="A70">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C70" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="13" t="str">
-        <f t="array" ref="A71">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C71" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="13" t="str">
-        <f t="array" ref="A72">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C72" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="13" t="str">
-        <f t="array" ref="A73">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C73" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="13" t="str">
-        <f t="array" ref="A74">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C74" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="13" t="str">
-        <f t="array" ref="A75">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C75" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="13" t="str">
-        <f t="array" ref="A76">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C76" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="13" t="str">
-        <f t="array" ref="A77">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C77" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="13" t="str">
-        <f t="array" ref="A78">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C78" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="13" t="str">
-        <f t="array" ref="A79">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C79" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="13" t="str">
-        <f t="array" ref="A80">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C80" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="13" t="str">
-        <f t="array" ref="A81">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C81" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="13" t="str">
-        <f t="array" ref="A82">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C82" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="13" t="str">
-        <f t="array" ref="A83">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C83" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="13" t="str">
-        <f t="array" ref="A84">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C84" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="13" t="str">
-        <f t="array" ref="A85">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C85" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="13" t="str">
-        <f t="array" ref="A86">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C86" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="13" t="str">
-        <f t="array" ref="A87">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C87" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="13" t="str">
-        <f t="array" ref="A88">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C88" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="13" t="str">
-        <f t="array" ref="A89">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C89" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="13" t="str">
-        <f t="array" ref="A90">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C90" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="13" t="str">
-        <f t="array" ref="A91">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C91" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="13" t="str">
-        <f t="array" ref="A92">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C92" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="13" t="str">
-        <f t="array" ref="A93">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C93" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="13" t="str">
-        <f t="array" ref="A94">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C94" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="13" t="str">
-        <f t="array" ref="A95">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C95" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="13" t="str">
-        <f t="array" ref="A96">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C96" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="13" t="str">
-        <f t="array" ref="A97">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C97" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="13" t="str">
-        <f t="array" ref="A98">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C98" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="13" t="str">
-        <f t="array" ref="A99">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C99" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="13" t="str">
-        <f t="array" ref="A100">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C100" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C101" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C102" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C103" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C104" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C105" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C106" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C107" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C108" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C109" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C110" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C111" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C112" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C113" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C114" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C115" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C116" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C117" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C118" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C119" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C120" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C121" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C122" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C123" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C124" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C125" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C126" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C127" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C128" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C129" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C130" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C131" s="16">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="203" verticalDpi="203"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C131"/>
   <sheetViews>
@@ -4619,7 +2639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C131"/>
   <sheetViews>
@@ -5701,7 +3721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:G131"/>
   <sheetViews>
@@ -6784,2171 +4804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:C131"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="38.5546875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="5.88671875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="str">
-        <f t="array" ref="A2">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v>example</v>
-      </c>
-      <c r="C2" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="str">
-        <f t="array" ref="A3">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C3" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="str">
-        <f t="array" ref="A4">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C4" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="str">
-        <f t="array" ref="A5">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C5" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="str">
-        <f t="array" ref="A6">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C6" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="str">
-        <f t="array" ref="A7">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C7" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="str">
-        <f t="array" ref="A8">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C8" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="str">
-        <f t="array" ref="A9">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C9" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="str">
-        <f t="array" ref="A10">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C10" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="str">
-        <f t="array" ref="A11">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C11" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="str">
-        <f t="array" ref="A12">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C12" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="str">
-        <f t="array" ref="A13">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C13" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="str">
-        <f t="array" ref="A14">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C14" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="str">
-        <f t="array" ref="A15">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C15" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="str">
-        <f t="array" ref="A16">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C16" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="str">
-        <f t="array" ref="A17">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C17" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="str">
-        <f t="array" ref="A18">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C18" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="str">
-        <f t="array" ref="A19">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C19" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="str">
-        <f t="array" ref="A20">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C20" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="str">
-        <f t="array" ref="A21">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C21" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="str">
-        <f t="array" ref="A22">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C22" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="str">
-        <f t="array" ref="A23">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C23" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="str">
-        <f t="array" ref="A24">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C24" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="str">
-        <f t="array" ref="A25">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C25" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="str">
-        <f t="array" ref="A26">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C26" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="str">
-        <f t="array" ref="A27">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C27" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="str">
-        <f t="array" ref="A28">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C28" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="str">
-        <f t="array" ref="A29">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C29" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="str">
-        <f t="array" ref="A30">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C30" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="str">
-        <f t="array" ref="A31">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C31" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="str">
-        <f t="array" ref="A32">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C32" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="str">
-        <f t="array" ref="A33">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C33" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="str">
-        <f t="array" ref="A34">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C34" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="str">
-        <f t="array" ref="A35">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C35" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="str">
-        <f t="array" ref="A36">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C36" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="str">
-        <f t="array" ref="A37">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C37" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="str">
-        <f t="array" ref="A38">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C38" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="13" t="str">
-        <f t="array" ref="A39">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C39" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13" t="str">
-        <f t="array" ref="A40">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C40" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13" t="str">
-        <f t="array" ref="A41">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C41" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="str">
-        <f t="array" ref="A42">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C42" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="13" t="str">
-        <f t="array" ref="A43">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C43" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="13" t="str">
-        <f t="array" ref="A44">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C44" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="13" t="str">
-        <f t="array" ref="A45">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C45" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="13" t="str">
-        <f t="array" ref="A46">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C46" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="13" t="str">
-        <f t="array" ref="A47">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C47" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="13" t="str">
-        <f t="array" ref="A48">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C48" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="13" t="str">
-        <f t="array" ref="A49">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C49" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="13" t="str">
-        <f t="array" ref="A50">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C50" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="13" t="str">
-        <f t="array" ref="A51">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C51" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="13" t="str">
-        <f t="array" ref="A52">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C52" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="13" t="str">
-        <f t="array" ref="A53">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C53" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="13" t="str">
-        <f t="array" ref="A54">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C54" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="13" t="str">
-        <f t="array" ref="A55">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C55" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="13" t="str">
-        <f t="array" ref="A56">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C56" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="13" t="str">
-        <f t="array" ref="A57">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C57" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="13" t="str">
-        <f t="array" ref="A58">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C58" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="13" t="str">
-        <f t="array" ref="A59">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C59" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="str">
-        <f t="array" ref="A60">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C60" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="13" t="str">
-        <f t="array" ref="A61">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C61" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="13" t="str">
-        <f t="array" ref="A62">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C62" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="13" t="str">
-        <f t="array" ref="A63">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C63" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="13" t="str">
-        <f t="array" ref="A64">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C64" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="13" t="str">
-        <f t="array" ref="A65">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C65" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="13" t="str">
-        <f t="array" ref="A66">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C66" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="13" t="str">
-        <f t="array" ref="A67">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C67" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="13" t="str">
-        <f t="array" ref="A68">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C68" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="13" t="str">
-        <f t="array" ref="A69">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C69" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="13" t="str">
-        <f t="array" ref="A70">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C70" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="13" t="str">
-        <f t="array" ref="A71">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C71" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="13" t="str">
-        <f t="array" ref="A72">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C72" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="13" t="str">
-        <f t="array" ref="A73">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C73" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="13" t="str">
-        <f t="array" ref="A74">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C74" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="13" t="str">
-        <f t="array" ref="A75">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C75" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="13" t="str">
-        <f t="array" ref="A76">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C76" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="13" t="str">
-        <f t="array" ref="A77">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C77" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="13" t="str">
-        <f t="array" ref="A78">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C78" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="13" t="str">
-        <f t="array" ref="A79">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C79" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="13" t="str">
-        <f t="array" ref="A80">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C80" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="13" t="str">
-        <f t="array" ref="A81">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C81" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="13" t="str">
-        <f t="array" ref="A82">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C82" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="13" t="str">
-        <f t="array" ref="A83">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C83" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="13" t="str">
-        <f t="array" ref="A84">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C84" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="13" t="str">
-        <f t="array" ref="A85">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C85" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="13" t="str">
-        <f t="array" ref="A86">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C86" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="13" t="str">
-        <f t="array" ref="A87">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C87" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="13" t="str">
-        <f t="array" ref="A88">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C88" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="13" t="str">
-        <f t="array" ref="A89">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C89" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="13" t="str">
-        <f t="array" ref="A90">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C90" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="13" t="str">
-        <f t="array" ref="A91">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C91" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="13" t="str">
-        <f t="array" ref="A92">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C92" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="13" t="str">
-        <f t="array" ref="A93">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C93" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="13" t="str">
-        <f t="array" ref="A94">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C94" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="13" t="str">
-        <f t="array" ref="A95">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C95" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="13" t="str">
-        <f t="array" ref="A96">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C96" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="13" t="str">
-        <f t="array" ref="A97">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C97" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="13" t="str">
-        <f t="array" ref="A98">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C98" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="13" t="str">
-        <f t="array" ref="A99">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C99" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="13" t="str">
-        <f t="array" ref="A100">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C100" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C101" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C102" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C103" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C104" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C105" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C106" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C107" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C108" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C109" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C110" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C111" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C112" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C113" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C114" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C115" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C116" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C117" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C118" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C119" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C120" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C121" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C122" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C123" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C124" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C125" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C126" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C127" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C128" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C129" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C130" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C131" s="16">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="203" verticalDpi="203"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:C131"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="38.5546875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="5.88671875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="str">
-        <f t="array" ref="A2">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v>example</v>
-      </c>
-      <c r="C2" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="str">
-        <f t="array" ref="A3">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C3" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="str">
-        <f t="array" ref="A4">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C4" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="str">
-        <f t="array" ref="A5">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C5" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="str">
-        <f t="array" ref="A6">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C6" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="str">
-        <f t="array" ref="A7">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C7" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="str">
-        <f t="array" ref="A8">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C8" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="str">
-        <f t="array" ref="A9">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C9" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="str">
-        <f t="array" ref="A10">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C10" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="str">
-        <f t="array" ref="A11">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C11" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="str">
-        <f t="array" ref="A12">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C12" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="str">
-        <f t="array" ref="A13">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C13" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="str">
-        <f t="array" ref="A14">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C14" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="str">
-        <f t="array" ref="A15">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C15" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="str">
-        <f t="array" ref="A16">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C16" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="str">
-        <f t="array" ref="A17">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C17" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="str">
-        <f t="array" ref="A18">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C18" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="str">
-        <f t="array" ref="A19">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C19" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="str">
-        <f t="array" ref="A20">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C20" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="str">
-        <f t="array" ref="A21">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C21" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="str">
-        <f t="array" ref="A22">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C22" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="str">
-        <f t="array" ref="A23">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C23" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="str">
-        <f t="array" ref="A24">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C24" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="str">
-        <f t="array" ref="A25">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C25" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="str">
-        <f t="array" ref="A26">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C26" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="str">
-        <f t="array" ref="A27">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C27" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="str">
-        <f t="array" ref="A28">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C28" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="str">
-        <f t="array" ref="A29">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C29" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="str">
-        <f t="array" ref="A30">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C30" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="str">
-        <f t="array" ref="A31">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C31" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="str">
-        <f t="array" ref="A32">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C32" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="str">
-        <f t="array" ref="A33">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C33" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="str">
-        <f t="array" ref="A34">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C34" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="str">
-        <f t="array" ref="A35">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C35" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="str">
-        <f t="array" ref="A36">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C36" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="str">
-        <f t="array" ref="A37">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C37" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="str">
-        <f t="array" ref="A38">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C38" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="13" t="str">
-        <f t="array" ref="A39">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C39" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13" t="str">
-        <f t="array" ref="A40">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C40" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13" t="str">
-        <f t="array" ref="A41">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C41" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="str">
-        <f t="array" ref="A42">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C42" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="13" t="str">
-        <f t="array" ref="A43">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C43" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="13" t="str">
-        <f t="array" ref="A44">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C44" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="13" t="str">
-        <f t="array" ref="A45">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C45" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="13" t="str">
-        <f t="array" ref="A46">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C46" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="13" t="str">
-        <f t="array" ref="A47">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C47" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="13" t="str">
-        <f t="array" ref="A48">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C48" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="13" t="str">
-        <f t="array" ref="A49">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C49" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="13" t="str">
-        <f t="array" ref="A50">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C50" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="13" t="str">
-        <f t="array" ref="A51">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C51" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="13" t="str">
-        <f t="array" ref="A52">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C52" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="13" t="str">
-        <f t="array" ref="A53">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C53" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="13" t="str">
-        <f t="array" ref="A54">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C54" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="13" t="str">
-        <f t="array" ref="A55">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C55" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="13" t="str">
-        <f t="array" ref="A56">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C56" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="13" t="str">
-        <f t="array" ref="A57">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C57" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="13" t="str">
-        <f t="array" ref="A58">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C58" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="13" t="str">
-        <f t="array" ref="A59">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C59" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="str">
-        <f t="array" ref="A60">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C60" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="13" t="str">
-        <f t="array" ref="A61">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C61" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="13" t="str">
-        <f t="array" ref="A62">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C62" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="13" t="str">
-        <f t="array" ref="A63">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C63" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="13" t="str">
-        <f t="array" ref="A64">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C64" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="13" t="str">
-        <f t="array" ref="A65">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C65" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="13" t="str">
-        <f t="array" ref="A66">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C66" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="13" t="str">
-        <f t="array" ref="A67">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C67" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="13" t="str">
-        <f t="array" ref="A68">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C68" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="13" t="str">
-        <f t="array" ref="A69">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C69" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="13" t="str">
-        <f t="array" ref="A70">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C70" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="13" t="str">
-        <f t="array" ref="A71">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C71" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="13" t="str">
-        <f t="array" ref="A72">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C72" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="13" t="str">
-        <f t="array" ref="A73">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C73" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="13" t="str">
-        <f t="array" ref="A74">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C74" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="13" t="str">
-        <f t="array" ref="A75">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C75" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="13" t="str">
-        <f t="array" ref="A76">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C76" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="13" t="str">
-        <f t="array" ref="A77">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C77" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="13" t="str">
-        <f t="array" ref="A78">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C78" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="13" t="str">
-        <f t="array" ref="A79">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C79" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="13" t="str">
-        <f t="array" ref="A80">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C80" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="13" t="str">
-        <f t="array" ref="A81">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C81" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="13" t="str">
-        <f t="array" ref="A82">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C82" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="13" t="str">
-        <f t="array" ref="A83">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C83" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="13" t="str">
-        <f t="array" ref="A84">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C84" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="13" t="str">
-        <f t="array" ref="A85">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C85" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="13" t="str">
-        <f t="array" ref="A86">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C86" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="13" t="str">
-        <f t="array" ref="A87">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C87" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="13" t="str">
-        <f t="array" ref="A88">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C88" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="13" t="str">
-        <f t="array" ref="A89">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C89" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="13" t="str">
-        <f t="array" ref="A90">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C90" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="13" t="str">
-        <f t="array" ref="A91">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C91" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="13" t="str">
-        <f t="array" ref="A92">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C92" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="13" t="str">
-        <f t="array" ref="A93">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C93" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="13" t="str">
-        <f t="array" ref="A94">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C94" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="13" t="str">
-        <f t="array" ref="A95">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C95" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="13" t="str">
-        <f t="array" ref="A96">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C96" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="13" t="str">
-        <f t="array" ref="A97">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C97" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="13" t="str">
-        <f t="array" ref="A98">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C98" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="13" t="str">
-        <f t="array" ref="A99">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C99" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="13" t="str">
-        <f t="array" ref="A100">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C100" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C101" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C102" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C103" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C104" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C105" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C106" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C107" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C108" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C109" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C110" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C111" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C112" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C113" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C114" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C115" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C116" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C117" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C118" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C119" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C120" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C121" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C122" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C123" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C124" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C125" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C126" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C127" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C128" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C129" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C130" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C131" s="16">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="203" verticalDpi="203"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:C131"/>
   <sheetViews>
@@ -15478,1088 +11334,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C131"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="38.5546875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="5.88671875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="str">
-        <f t="array" ref="A2">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v>example</v>
-      </c>
-      <c r="C2" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="str">
-        <f t="array" ref="A3">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C3" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="str">
-        <f t="array" ref="A4">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C4" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="str">
-        <f t="array" ref="A5">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C5" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="str">
-        <f t="array" ref="A6">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C6" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="str">
-        <f t="array" ref="A7">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C7" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="str">
-        <f t="array" ref="A8">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C8" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="str">
-        <f t="array" ref="A9">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C9" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="str">
-        <f t="array" ref="A10">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C10" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="str">
-        <f t="array" ref="A11">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C11" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="str">
-        <f t="array" ref="A12">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C12" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="str">
-        <f t="array" ref="A13">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C13" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="str">
-        <f t="array" ref="A14">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C14" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="str">
-        <f t="array" ref="A15">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C15" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="str">
-        <f t="array" ref="A16">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C16" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="str">
-        <f t="array" ref="A17">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C17" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="str">
-        <f t="array" ref="A18">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C18" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="str">
-        <f t="array" ref="A19">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C19" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="str">
-        <f t="array" ref="A20">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C20" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="str">
-        <f t="array" ref="A21">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C21" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="str">
-        <f t="array" ref="A22">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C22" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="str">
-        <f t="array" ref="A23">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C23" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="str">
-        <f t="array" ref="A24">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C24" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="str">
-        <f t="array" ref="A25">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C25" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="str">
-        <f t="array" ref="A26">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C26" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="str">
-        <f t="array" ref="A27">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C27" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="str">
-        <f t="array" ref="A28">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C28" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="str">
-        <f t="array" ref="A29">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C29" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="str">
-        <f t="array" ref="A30">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C30" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="str">
-        <f t="array" ref="A31">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C31" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="str">
-        <f t="array" ref="A32">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C32" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="str">
-        <f t="array" ref="A33">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C33" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="str">
-        <f t="array" ref="A34">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C34" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="str">
-        <f t="array" ref="A35">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C35" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="str">
-        <f t="array" ref="A36">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C36" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="str">
-        <f t="array" ref="A37">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C37" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="str">
-        <f t="array" ref="A38">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C38" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="13" t="str">
-        <f t="array" ref="A39">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C39" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13" t="str">
-        <f t="array" ref="A40">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C40" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13" t="str">
-        <f t="array" ref="A41">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C41" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="str">
-        <f t="array" ref="A42">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C42" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="13" t="str">
-        <f t="array" ref="A43">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C43" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="13" t="str">
-        <f t="array" ref="A44">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C44" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="13" t="str">
-        <f t="array" ref="A45">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C45" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="13" t="str">
-        <f t="array" ref="A46">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C46" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="13" t="str">
-        <f t="array" ref="A47">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C47" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="13" t="str">
-        <f t="array" ref="A48">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C48" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="13" t="str">
-        <f t="array" ref="A49">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C49" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="13" t="str">
-        <f t="array" ref="A50">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C50" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="13" t="str">
-        <f t="array" ref="A51">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C51" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="13" t="str">
-        <f t="array" ref="A52">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C52" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="13" t="str">
-        <f t="array" ref="A53">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C53" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="13" t="str">
-        <f t="array" ref="A54">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C54" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="13" t="str">
-        <f t="array" ref="A55">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C55" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="13" t="str">
-        <f t="array" ref="A56">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C56" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="13" t="str">
-        <f t="array" ref="A57">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C57" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="13" t="str">
-        <f t="array" ref="A58">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C58" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="13" t="str">
-        <f t="array" ref="A59">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C59" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="str">
-        <f t="array" ref="A60">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C60" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="13" t="str">
-        <f t="array" ref="A61">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C61" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="13" t="str">
-        <f t="array" ref="A62">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C62" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="13" t="str">
-        <f t="array" ref="A63">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C63" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="13" t="str">
-        <f t="array" ref="A64">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C64" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="13" t="str">
-        <f t="array" ref="A65">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C65" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="13" t="str">
-        <f t="array" ref="A66">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C66" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="13" t="str">
-        <f t="array" ref="A67">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C67" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="13" t="str">
-        <f t="array" ref="A68">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C68" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="13" t="str">
-        <f t="array" ref="A69">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C69" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="13" t="str">
-        <f t="array" ref="A70">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C70" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="13" t="str">
-        <f t="array" ref="A71">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C71" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="13" t="str">
-        <f t="array" ref="A72">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C72" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="13" t="str">
-        <f t="array" ref="A73">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C73" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="13" t="str">
-        <f t="array" ref="A74">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C74" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="13" t="str">
-        <f t="array" ref="A75">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C75" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="13" t="str">
-        <f t="array" ref="A76">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C76" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="13" t="str">
-        <f t="array" ref="A77">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C77" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="13" t="str">
-        <f t="array" ref="A78">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C78" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="13" t="str">
-        <f t="array" ref="A79">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C79" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="13" t="str">
-        <f t="array" ref="A80">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C80" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="13" t="str">
-        <f t="array" ref="A81">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C81" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="13" t="str">
-        <f t="array" ref="A82">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C82" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="13" t="str">
-        <f t="array" ref="A83">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C83" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="13" t="str">
-        <f t="array" ref="A84">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C84" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="13" t="str">
-        <f t="array" ref="A85">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C85" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="13" t="str">
-        <f t="array" ref="A86">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C86" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="13" t="str">
-        <f t="array" ref="A87">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C87" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="13" t="str">
-        <f t="array" ref="A88">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C88" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="13" t="str">
-        <f t="array" ref="A89">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C89" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="13" t="str">
-        <f t="array" ref="A90">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C90" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="13" t="str">
-        <f t="array" ref="A91">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C91" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="13" t="str">
-        <f t="array" ref="A92">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C92" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="13" t="str">
-        <f t="array" ref="A93">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C93" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="13" t="str">
-        <f t="array" ref="A94">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C94" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="13" t="str">
-        <f t="array" ref="A95">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C95" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="13" t="str">
-        <f t="array" ref="A96">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C96" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="13" t="str">
-        <f t="array" ref="A97">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C97" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="13" t="str">
-        <f t="array" ref="A98">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C98" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="13" t="str">
-        <f t="array" ref="A99">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C99" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="13" t="str">
-        <f t="array" ref="A100">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
-        <v/>
-      </c>
-      <c r="C100" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C101" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C102" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C103" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C104" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C105" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C106" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C107" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C108" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C109" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C110" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C111" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C112" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C113" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C114" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C115" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C116" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C117" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C118" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C119" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C120" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C121" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C122" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C123" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C124" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C125" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C126" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C127" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C128" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C129" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C130" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C131" s="16">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="203" verticalDpi="203"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C131"/>
   <sheetViews>
@@ -17639,4 +12413,1086 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="203" verticalDpi="203"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:C131"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.5546875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="str">
+        <f t="array" ref="A2">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v>example</v>
+      </c>
+      <c r="C2" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="str">
+        <f t="array" ref="A3">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C3" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="str">
+        <f t="array" ref="A4">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C4" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="str">
+        <f t="array" ref="A5">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C5" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="str">
+        <f t="array" ref="A6">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C6" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="str">
+        <f t="array" ref="A7">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C7" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="str">
+        <f t="array" ref="A8">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C8" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="str">
+        <f t="array" ref="A9">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C9" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="str">
+        <f t="array" ref="A10">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C10" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="str">
+        <f t="array" ref="A11">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C11" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="str">
+        <f t="array" ref="A12">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C12" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="str">
+        <f t="array" ref="A13">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C13" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="str">
+        <f t="array" ref="A14">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C14" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="str">
+        <f t="array" ref="A15">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C15" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="str">
+        <f t="array" ref="A16">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C16" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="str">
+        <f t="array" ref="A17">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C17" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="str">
+        <f t="array" ref="A18">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C18" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="str">
+        <f t="array" ref="A19">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C19" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="str">
+        <f t="array" ref="A20">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C20" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="str">
+        <f t="array" ref="A21">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C21" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="str">
+        <f t="array" ref="A22">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C22" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="str">
+        <f t="array" ref="A23">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C23" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="str">
+        <f t="array" ref="A24">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C24" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="str">
+        <f t="array" ref="A25">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C25" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="str">
+        <f t="array" ref="A26">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C26" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="str">
+        <f t="array" ref="A27">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C27" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="str">
+        <f t="array" ref="A28">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C28" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="str">
+        <f t="array" ref="A29">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C29" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="str">
+        <f t="array" ref="A30">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C30" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="str">
+        <f t="array" ref="A31">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C31" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="str">
+        <f t="array" ref="A32">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C32" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="str">
+        <f t="array" ref="A33">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C33" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="str">
+        <f t="array" ref="A34">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C34" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="str">
+        <f t="array" ref="A35">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C35" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="13" t="str">
+        <f t="array" ref="A36">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C36" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="str">
+        <f t="array" ref="A37">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C37" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="str">
+        <f t="array" ref="A38">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C38" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="13" t="str">
+        <f t="array" ref="A39">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C39" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="13" t="str">
+        <f t="array" ref="A40">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C40" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="13" t="str">
+        <f t="array" ref="A41">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C41" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="13" t="str">
+        <f t="array" ref="A42">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C42" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="13" t="str">
+        <f t="array" ref="A43">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C43" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="13" t="str">
+        <f t="array" ref="A44">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C44" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="13" t="str">
+        <f t="array" ref="A45">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C45" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="13" t="str">
+        <f t="array" ref="A46">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C46" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="13" t="str">
+        <f t="array" ref="A47">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C47" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="13" t="str">
+        <f t="array" ref="A48">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C48" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="13" t="str">
+        <f t="array" ref="A49">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C49" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="13" t="str">
+        <f t="array" ref="A50">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C50" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="13" t="str">
+        <f t="array" ref="A51">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C51" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="13" t="str">
+        <f t="array" ref="A52">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C52" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="13" t="str">
+        <f t="array" ref="A53">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C53" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="13" t="str">
+        <f t="array" ref="A54">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C54" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="13" t="str">
+        <f t="array" ref="A55">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C55" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="13" t="str">
+        <f t="array" ref="A56">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C56" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="13" t="str">
+        <f t="array" ref="A57">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C57" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="13" t="str">
+        <f t="array" ref="A58">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C58" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="13" t="str">
+        <f t="array" ref="A59">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C59" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="13" t="str">
+        <f t="array" ref="A60">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C60" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="13" t="str">
+        <f t="array" ref="A61">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C61" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="13" t="str">
+        <f t="array" ref="A62">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C62" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="13" t="str">
+        <f t="array" ref="A63">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C63" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="13" t="str">
+        <f t="array" ref="A64">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C64" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="13" t="str">
+        <f t="array" ref="A65">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C65" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="13" t="str">
+        <f t="array" ref="A66">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C66" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="13" t="str">
+        <f t="array" ref="A67">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C67" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="13" t="str">
+        <f t="array" ref="A68">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C68" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="13" t="str">
+        <f t="array" ref="A69">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C69" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="13" t="str">
+        <f t="array" ref="A70">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C70" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="13" t="str">
+        <f t="array" ref="A71">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C71" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="13" t="str">
+        <f t="array" ref="A72">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C72" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="13" t="str">
+        <f t="array" ref="A73">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C73" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="13" t="str">
+        <f t="array" ref="A74">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C74" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="13" t="str">
+        <f t="array" ref="A75">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C75" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="13" t="str">
+        <f t="array" ref="A76">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C76" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="13" t="str">
+        <f t="array" ref="A77">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C77" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="13" t="str">
+        <f t="array" ref="A78">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C78" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="13" t="str">
+        <f t="array" ref="A79">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C79" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="13" t="str">
+        <f t="array" ref="A80">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C80" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="13" t="str">
+        <f t="array" ref="A81">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C81" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="13" t="str">
+        <f t="array" ref="A82">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C82" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="13" t="str">
+        <f t="array" ref="A83">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C83" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="13" t="str">
+        <f t="array" ref="A84">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C84" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="13" t="str">
+        <f t="array" ref="A85">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C85" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="13" t="str">
+        <f t="array" ref="A86">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C86" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="13" t="str">
+        <f t="array" ref="A87">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C87" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="13" t="str">
+        <f t="array" ref="A88">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C88" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="13" t="str">
+        <f t="array" ref="A89">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C89" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="13" t="str">
+        <f t="array" ref="A90">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C90" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="13" t="str">
+        <f t="array" ref="A91">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C91" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="13" t="str">
+        <f t="array" ref="A92">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C92" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="13" t="str">
+        <f t="array" ref="A93">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C93" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="13" t="str">
+        <f t="array" ref="A94">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C94" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="13" t="str">
+        <f t="array" ref="A95">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C95" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="13" t="str">
+        <f t="array" ref="A96">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C96" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="13" t="str">
+        <f t="array" ref="A97">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C97" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="13" t="str">
+        <f t="array" ref="A98">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C98" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="13" t="str">
+        <f t="array" ref="A99">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C99" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="13" t="str">
+        <f t="array" ref="A100">IF(INDEX(keys!A:A, ROW())=0, "", INDEX(keys!A:A, ROW()))</f>
+        <v/>
+      </c>
+      <c r="C100" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C101" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C102" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C103" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C104" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C105" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C106" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C107" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C108" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C109" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C110" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C111" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C112" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C113" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C114" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C115" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C116" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C117" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C118" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C119" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C120" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C121" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C122" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C123" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C124" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C125" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C126" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C127" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C128" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C129" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C130" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C131" s="16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="203" verticalDpi="203"/>
+</worksheet>
 </file>